--- a/output/Liquidacion_ALVAREZ_BUSTILLOS_SALY_BETZABE.xlsx
+++ b/output/Liquidacion_ALVAREZ_BUSTILLOS_SALY_BETZABE.xlsx
@@ -4646,9 +4646,7 @@
       <c r="AB105" s="159" t="n"/>
       <c r="AC105" s="43" t="n"/>
       <c r="AD105" s="43" t="n"/>
-      <c r="AE105" s="43" t="n">
-        <v>5</v>
-      </c>
+      <c r="AE105" s="43" t="n"/>
       <c r="AF105" s="43" t="n"/>
       <c r="AG105" s="43" t="n"/>
       <c r="AH105" s="43" t="n"/>
@@ -4686,9 +4684,7 @@
       <c r="AB106" s="159" t="n"/>
       <c r="AC106" s="43" t="n"/>
       <c r="AD106" s="43" t="n"/>
-      <c r="AE106" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE106" s="43" t="n"/>
       <c r="AF106" s="43" t="n"/>
       <c r="AG106" s="43" t="n"/>
       <c r="AH106" s="43" t="n"/>
@@ -4700,7 +4696,11 @@
     </row>
     <row r="107" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B107" s="43" t="n"/>
-      <c r="D107" s="115" t="n"/>
+      <c r="D107" s="115" t="inlineStr">
+        <is>
+          <t>Por Días</t>
+        </is>
+      </c>
       <c r="F107" s="112" t="n"/>
       <c r="H107" s="129" t="n"/>
       <c r="I107" s="112" t="n"/>
@@ -4725,12 +4725,25 @@
     </row>
     <row r="108" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B108" s="43" t="n"/>
-      <c r="D108" s="115" t="n"/>
+      <c r="D108" s="115" t="inlineStr">
+        <is>
+          <t>49.7 / 30</t>
+        </is>
+      </c>
       <c r="F108" s="112" t="n"/>
-      <c r="H108" s="129" t="n"/>
+      <c r="H108" s="129" t="n">
+        <v>1.655092592592593</v>
+      </c>
       <c r="I108" s="112" t="n"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0 días</t>
+        </is>
+      </c>
       <c r="K108" s="129" t="n"/>
-      <c r="S108" s="110" t="n"/>
+      <c r="S108" s="110" t="n">
+        <v>0</v>
+      </c>
       <c r="U108" s="113" t="n"/>
       <c r="Y108" s="43" t="n"/>
       <c r="Z108" s="43" t="n"/>
@@ -4755,7 +4768,14 @@
       <c r="H109" s="129" t="n"/>
       <c r="I109" s="112" t="n"/>
       <c r="K109" s="129" t="n"/>
-      <c r="S109" s="110" t="n"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>TOTAL CTS</t>
+        </is>
+      </c>
+      <c r="S109" s="110" t="n">
+        <v>248.2638888888889</v>
+      </c>
       <c r="U109" s="113" t="n"/>
       <c r="Y109" s="43" t="n"/>
       <c r="Z109" s="43" t="n"/>
@@ -4780,6 +4800,11 @@
       <c r="H110" s="129" t="n"/>
       <c r="I110" s="112" t="n"/>
       <c r="K110" s="129" t="n"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>INTERES LABORAL</t>
+        </is>
+      </c>
       <c r="S110" s="110" t="n"/>
       <c r="U110" s="113" t="n"/>
       <c r="Y110" s="43" t="n"/>
@@ -4818,6 +4843,11 @@
       </c>
       <c r="L111" s="107" t="n">
         <v>0.00039</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Total CTS, Interes Laboral</t>
+        </is>
       </c>
       <c r="S111" s="110" t="n"/>
       <c r="U111" s="113" t="n"/>
